--- a/code/data/100_silhouette_results.xlsx
+++ b/code/data/100_silhouette_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,13 +459,18 @@
           <t>calculated_bestnum</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -477,6 +482,9 @@
       </c>
       <c r="E2" t="n">
         <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -496,6 +504,9 @@
       </c>
       <c r="E3" t="n">
         <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -515,6 +526,9 @@
       </c>
       <c r="E4" t="n">
         <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -534,6 +548,9 @@
       </c>
       <c r="E5" t="n">
         <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -553,6 +570,9 @@
       </c>
       <c r="E6" t="n">
         <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -572,6 +592,9 @@
       </c>
       <c r="E7" t="n">
         <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -579,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -590,7 +613,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -598,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -610,6 +636,9 @@
       </c>
       <c r="E9" t="n">
         <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -617,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -629,6 +658,9 @@
       </c>
       <c r="E10" t="n">
         <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -636,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -648,6 +680,9 @@
       </c>
       <c r="E11" t="n">
         <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -655,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -667,6 +702,9 @@
       </c>
       <c r="E12" t="n">
         <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -686,6 +724,9 @@
       </c>
       <c r="E13" t="n">
         <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -693,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -705,6 +746,9 @@
       </c>
       <c r="E14" t="n">
         <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -712,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -724,6 +768,9 @@
       </c>
       <c r="E15" t="n">
         <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -731,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -742,7 +789,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -750,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -762,6 +812,9 @@
       </c>
       <c r="E17" t="n">
         <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -769,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -781,6 +834,9 @@
       </c>
       <c r="E18" t="n">
         <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -788,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -800,6 +856,9 @@
       </c>
       <c r="E19" t="n">
         <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -807,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -819,6 +878,9 @@
       </c>
       <c r="E20" t="n">
         <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -826,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -838,6 +900,9 @@
       </c>
       <c r="E21" t="n">
         <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -845,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -857,6 +922,9 @@
       </c>
       <c r="E22" t="n">
         <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -864,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -876,6 +944,9 @@
       </c>
       <c r="E23" t="n">
         <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -883,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -895,6 +966,9 @@
       </c>
       <c r="E24" t="n">
         <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -902,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -914,6 +988,9 @@
       </c>
       <c r="E25" t="n">
         <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -921,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -933,6 +1010,9 @@
       </c>
       <c r="E26" t="n">
         <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -940,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -952,6 +1032,9 @@
       </c>
       <c r="E27" t="n">
         <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -959,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -970,7 +1053,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -978,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -990,6 +1076,9 @@
       </c>
       <c r="E29" t="n">
         <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -997,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1009,6 +1098,9 @@
       </c>
       <c r="E30" t="n">
         <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1016,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1028,6 +1120,9 @@
       </c>
       <c r="E31" t="n">
         <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -1035,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1046,7 +1141,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1054,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1066,6 +1164,9 @@
       </c>
       <c r="E33" t="n">
         <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -1073,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1084,7 +1185,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -1092,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1104,6 +1208,9 @@
       </c>
       <c r="E35" t="n">
         <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -1111,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1123,6 +1230,9 @@
       </c>
       <c r="E36" t="n">
         <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1130,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1141,7 +1251,10 @@
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -1149,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1161,6 +1274,9 @@
       </c>
       <c r="E38" t="n">
         <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -1168,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1180,6 +1296,9 @@
       </c>
       <c r="E39" t="n">
         <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -1187,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1198,7 +1317,10 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -1206,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1218,6 +1340,9 @@
       </c>
       <c r="E41" t="n">
         <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -1225,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1233,10 +1358,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -1244,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1252,10 +1380,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -1263,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1271,10 +1402,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -1282,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1290,10 +1424,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
         <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -1301,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1309,10 +1446,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="47">
@@ -1320,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1328,10 +1468,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -1339,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1347,10 +1490,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -1358,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1366,10 +1512,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -1377,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1389,6 +1538,9 @@
       </c>
       <c r="E50" t="n">
         <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -1396,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1408,6 +1560,9 @@
       </c>
       <c r="E51" t="n">
         <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -1415,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1427,6 +1582,9 @@
       </c>
       <c r="E52" t="n">
         <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -1434,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1445,7 +1603,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -1453,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1465,6 +1626,9 @@
       </c>
       <c r="E54" t="n">
         <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -1472,7 +1636,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1484,6 +1648,9 @@
       </c>
       <c r="E55" t="n">
         <v>3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -1491,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1502,7 +1669,10 @@
         <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57">
@@ -1510,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1522,6 +1692,9 @@
       </c>
       <c r="E57" t="n">
         <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -1529,7 +1702,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1541,6 +1714,9 @@
       </c>
       <c r="E58" t="n">
         <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="59">
@@ -1548,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1560,6 +1736,9 @@
       </c>
       <c r="E59" t="n">
         <v>3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="60">
@@ -1567,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1579,6 +1758,9 @@
       </c>
       <c r="E60" t="n">
         <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="61">
@@ -1586,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1598,6 +1780,9 @@
       </c>
       <c r="E61" t="n">
         <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="62">
@@ -1605,7 +1790,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1617,6 +1802,9 @@
       </c>
       <c r="E62" t="n">
         <v>3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="63">
@@ -1624,7 +1812,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1636,6 +1824,9 @@
       </c>
       <c r="E63" t="n">
         <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1654,7 +1845,10 @@
         <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="65">
@@ -1662,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1674,6 +1868,9 @@
       </c>
       <c r="E65" t="n">
         <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="66">
@@ -1681,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1693,6 +1890,9 @@
       </c>
       <c r="E66" t="n">
         <v>3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="67">
@@ -1700,7 +1900,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1712,6 +1912,9 @@
       </c>
       <c r="E67" t="n">
         <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="68">
@@ -1719,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1730,7 +1933,10 @@
         <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="69">
@@ -1738,7 +1944,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1749,7 +1955,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="70">
@@ -1757,7 +1966,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1769,6 +1978,9 @@
       </c>
       <c r="E70" t="n">
         <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -1776,7 +1988,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1788,6 +2000,9 @@
       </c>
       <c r="E71" t="n">
         <v>3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="72">
@@ -1795,7 +2010,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1806,7 +2021,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="73">
@@ -1814,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1826,6 +2044,9 @@
       </c>
       <c r="E73" t="n">
         <v>3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="74">
@@ -1833,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1845,6 +2066,9 @@
       </c>
       <c r="E74" t="n">
         <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="75">
@@ -1852,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1863,7 +2087,10 @@
         <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="76">
@@ -1871,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1882,7 +2109,10 @@
         <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="77">
@@ -1890,7 +2120,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1901,7 +2131,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -1909,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1920,7 +2153,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="79">
@@ -1928,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1939,7 +2175,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="80">
@@ -1947,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1958,7 +2197,10 @@
         <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="81">
@@ -1966,7 +2208,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1978,14 +2220,17 @@
       </c>
       <c r="E81" t="n">
         <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1993,18 +2238,21 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2012,18 +2260,21 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2031,18 +2282,21 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2050,18 +2304,21 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2069,18 +2326,21 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2088,18 +2348,21 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
         <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2107,18 +2370,21 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2126,18 +2392,21 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2149,14 +2418,17 @@
       </c>
       <c r="E90" t="n">
         <v>4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2168,14 +2440,17 @@
       </c>
       <c r="E91" t="n">
         <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2187,14 +2462,17 @@
       </c>
       <c r="E92" t="n">
         <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2206,14 +2484,17 @@
       </c>
       <c r="E93" t="n">
         <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2225,14 +2506,17 @@
       </c>
       <c r="E94" t="n">
         <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2244,14 +2528,17 @@
       </c>
       <c r="E95" t="n">
         <v>4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2262,15 +2549,18 @@
         <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2282,14 +2572,17 @@
       </c>
       <c r="E97" t="n">
         <v>3</v>
+      </c>
+      <c r="F97" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2300,15 +2593,18 @@
         <v>4</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2319,15 +2615,18 @@
         <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2338,15 +2637,18 @@
         <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2358,14 +2660,17 @@
       </c>
       <c r="E101" t="n">
         <v>3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2376,15 +2681,18 @@
         <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2396,14 +2704,17 @@
       </c>
       <c r="E103" t="n">
         <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2414,15 +2725,18 @@
         <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2434,14 +2748,17 @@
       </c>
       <c r="E105" t="n">
         <v>3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2453,14 +2770,17 @@
       </c>
       <c r="E106" t="n">
         <v>3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2471,15 +2791,18 @@
         <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2491,14 +2814,17 @@
       </c>
       <c r="E108" t="n">
         <v>3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2510,14 +2836,17 @@
       </c>
       <c r="E109" t="n">
         <v>3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2528,15 +2857,18 @@
         <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2547,15 +2879,18 @@
         <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2566,15 +2901,18 @@
         <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2586,14 +2924,17 @@
       </c>
       <c r="E113" t="n">
         <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2605,14 +2946,17 @@
       </c>
       <c r="E114" t="n">
         <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2623,15 +2967,18 @@
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2642,15 +2989,18 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2662,14 +3012,17 @@
       </c>
       <c r="E117" t="n">
         <v>3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2680,15 +3033,18 @@
         <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2699,15 +3055,18 @@
         <v>4</v>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2718,15 +3077,18 @@
         <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2738,14 +3100,17 @@
       </c>
       <c r="E121" t="n">
         <v>3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2753,18 +3118,21 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2772,18 +3140,21 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2791,18 +3162,21 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
         <v>3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2810,18 +3184,21 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2829,18 +3206,21 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E126" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B127" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2848,18 +3228,21 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2867,18 +3250,21 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2886,18 +3272,21 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
         <v>3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2908,15 +3297,18 @@
         <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2927,15 +3319,18 @@
         <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2946,15 +3341,18 @@
         <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2965,15 +3363,18 @@
         <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2984,15 +3385,18 @@
         <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3004,14 +3408,17 @@
       </c>
       <c r="E135" t="n">
         <v>5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3022,15 +3429,18 @@
         <v>5</v>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3041,15 +3451,18 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3061,14 +3474,17 @@
       </c>
       <c r="E138" t="n">
         <v>3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3079,15 +3495,18 @@
         <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3098,15 +3517,18 @@
         <v>5</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3118,14 +3540,17 @@
       </c>
       <c r="E141" t="n">
         <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3136,15 +3561,18 @@
         <v>5</v>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3156,14 +3584,17 @@
       </c>
       <c r="E143" t="n">
         <v>5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3174,15 +3605,18 @@
         <v>5</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3193,15 +3627,18 @@
         <v>5</v>
       </c>
       <c r="E145" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3213,14 +3650,17 @@
       </c>
       <c r="E146" t="n">
         <v>3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3232,14 +3672,17 @@
       </c>
       <c r="E147" t="n">
         <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3250,15 +3693,18 @@
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3269,15 +3715,18 @@
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3288,15 +3737,18 @@
         <v>5</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3307,15 +3759,18 @@
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3327,14 +3782,17 @@
       </c>
       <c r="E152" t="n">
         <v>6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3346,14 +3804,17 @@
       </c>
       <c r="E153" t="n">
         <v>3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3364,15 +3825,18 @@
         <v>5</v>
       </c>
       <c r="E154" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3383,15 +3847,18 @@
         <v>5</v>
       </c>
       <c r="E155" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3402,15 +3869,18 @@
         <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3421,15 +3891,18 @@
         <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3441,14 +3914,17 @@
       </c>
       <c r="E158" t="n">
         <v>3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3460,14 +3936,17 @@
       </c>
       <c r="E159" t="n">
         <v>3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3479,14 +3958,17 @@
       </c>
       <c r="E160" t="n">
         <v>3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3498,14 +3980,17 @@
       </c>
       <c r="E161" t="n">
         <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3513,18 +3998,21 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3532,18 +4020,21 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3551,18 +4042,21 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E164" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3570,18 +4064,21 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3589,18 +4086,21 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E166" t="n">
         <v>3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3608,18 +4108,21 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E167" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3627,18 +4130,21 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3646,18 +4152,21 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E169" t="n">
         <v>3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3668,15 +4177,18 @@
         <v>6</v>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3688,14 +4200,17 @@
       </c>
       <c r="E171" t="n">
         <v>2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3706,15 +4221,18 @@
         <v>6</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3725,15 +4243,18 @@
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3744,15 +4265,18 @@
         <v>6</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3764,14 +4288,17 @@
       </c>
       <c r="E175" t="n">
         <v>6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3782,15 +4309,18 @@
         <v>6</v>
       </c>
       <c r="E176" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3801,15 +4331,18 @@
         <v>6</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3821,14 +4354,17 @@
       </c>
       <c r="E178" t="n">
         <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B179" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3840,14 +4376,17 @@
       </c>
       <c r="E179" t="n">
         <v>3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3858,15 +4397,18 @@
         <v>6</v>
       </c>
       <c r="E180" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B181" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3878,14 +4420,17 @@
       </c>
       <c r="E181" t="n">
         <v>2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B182" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3896,15 +4441,18 @@
         <v>6</v>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B183" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3915,15 +4463,18 @@
         <v>6</v>
       </c>
       <c r="E183" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3934,15 +4485,18 @@
         <v>6</v>
       </c>
       <c r="E184" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B185" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3953,15 +4507,18 @@
         <v>6</v>
       </c>
       <c r="E185" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3973,14 +4530,17 @@
       </c>
       <c r="E186" t="n">
         <v>3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3992,14 +4552,17 @@
       </c>
       <c r="E187" t="n">
         <v>3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4011,14 +4574,17 @@
       </c>
       <c r="E188" t="n">
         <v>3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4029,15 +4595,18 @@
         <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F189" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4049,14 +4618,17 @@
       </c>
       <c r="E190" t="n">
         <v>3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4067,15 +4639,18 @@
         <v>6</v>
       </c>
       <c r="E191" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4086,15 +4661,18 @@
         <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4105,15 +4683,18 @@
         <v>6</v>
       </c>
       <c r="E193" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B194" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4124,15 +4705,18 @@
         <v>6</v>
       </c>
       <c r="E194" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B195" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4143,15 +4727,18 @@
         <v>6</v>
       </c>
       <c r="E195" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4162,15 +4749,18 @@
         <v>6</v>
       </c>
       <c r="E196" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4181,15 +4771,18 @@
         <v>6</v>
       </c>
       <c r="E197" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B198" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4200,15 +4793,18 @@
         <v>6</v>
       </c>
       <c r="E198" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B199" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4220,14 +4816,17 @@
       </c>
       <c r="E199" t="n">
         <v>3</v>
+      </c>
+      <c r="F199" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B200" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4238,15 +4837,18 @@
         <v>6</v>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B201" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4257,15 +4859,18 @@
         <v>6</v>
       </c>
       <c r="E201" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B202" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4277,14 +4882,17 @@
       </c>
       <c r="E202" t="n">
         <v>3</v>
+      </c>
+      <c r="F202" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B203" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4295,15 +4903,18 @@
         <v>6</v>
       </c>
       <c r="E203" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B204" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4314,15 +4925,18 @@
         <v>6</v>
       </c>
       <c r="E204" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4334,14 +4948,17 @@
       </c>
       <c r="E205" t="n">
         <v>2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4352,15 +4969,18 @@
         <v>6</v>
       </c>
       <c r="E206" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B207" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4371,15 +4991,18 @@
         <v>6</v>
       </c>
       <c r="E207" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B208" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4390,15 +5013,18 @@
         <v>6</v>
       </c>
       <c r="E208" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B209" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4410,14 +5036,17 @@
       </c>
       <c r="E209" t="n">
         <v>3</v>
+      </c>
+      <c r="F209" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4429,14 +5058,17 @@
       </c>
       <c r="E210" t="n">
         <v>3</v>
+      </c>
+      <c r="F210" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4448,14 +5080,17 @@
       </c>
       <c r="E211" t="n">
         <v>3</v>
+      </c>
+      <c r="F211" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4466,15 +5101,18 @@
         <v>6</v>
       </c>
       <c r="E212" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4485,15 +5123,18 @@
         <v>6</v>
       </c>
       <c r="E213" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F213" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B214" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4505,14 +5146,17 @@
       </c>
       <c r="E214" t="n">
         <v>3</v>
+      </c>
+      <c r="F214" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4524,14 +5168,17 @@
       </c>
       <c r="E215" t="n">
         <v>3</v>
+      </c>
+      <c r="F215" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B216" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4542,15 +5189,18 @@
         <v>6</v>
       </c>
       <c r="E216" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4562,14 +5212,17 @@
       </c>
       <c r="E217" t="n">
         <v>3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B218" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4581,14 +5234,17 @@
       </c>
       <c r="E218" t="n">
         <v>3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4600,14 +5256,17 @@
       </c>
       <c r="E219" t="n">
         <v>3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B220" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4618,15 +5277,18 @@
         <v>6</v>
       </c>
       <c r="E220" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F220" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4638,14 +5300,17 @@
       </c>
       <c r="E221" t="n">
         <v>2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -4657,14 +5322,17 @@
       </c>
       <c r="E222" t="n">
         <v>3</v>
+      </c>
+      <c r="F222" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -4676,14 +5344,17 @@
       </c>
       <c r="E223" t="n">
         <v>3</v>
+      </c>
+      <c r="F223" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B224" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4694,15 +5365,18 @@
         <v>6</v>
       </c>
       <c r="E224" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B225" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -4714,6 +5388,185 @@
       </c>
       <c r="E225" t="n">
         <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>28</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>6</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3</v>
+      </c>
+      <c r="F226" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>28</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>28</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>6</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3</v>
+      </c>
+      <c r="F228" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>28</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>6</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2</v>
+      </c>
+      <c r="F229" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>28</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>6</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3</v>
+      </c>
+      <c r="F230" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>28</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>6</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3</v>
+      </c>
+      <c r="F231" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>28</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>6</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2</v>
+      </c>
+      <c r="F232" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>28</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>6</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3</v>
+      </c>
+      <c r="F233" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
